--- a/biology/Médecine/Apoplexie_hypophysaire/Apoplexie_hypophysaire.xlsx
+++ b/biology/Médecine/Apoplexie_hypophysaire/Apoplexie_hypophysaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'apoplexie hypophysaire, ou l'apoplexie pituitaire, est un dysfonctionnement de l'hypophyse (la glande pituitaire) entraînant divers symptômes [3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apoplexie hypophysaire, ou l'apoplexie pituitaire, est un dysfonctionnement de l'hypophyse (la glande pituitaire) entraînant divers symptômes ,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'apoplexie hypophysaire est rare : elle touche environ 0,4 % de la population [2]. Chez les personnes ayant des tumeurs hypophysaires, jusqu'à 10 % sont touchées [1]. Le premier cas a été documenté en 1898 par Pearce Bailey [5]. Son nom actuel est entré en usage en 1950 [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apoplexie hypophysaire est rare : elle touche environ 0,4 % de la population . Chez les personnes ayant des tumeurs hypophysaires, jusqu'à 10 % sont touchées . Le premier cas a été documenté en 1898 par Pearce Bailey . Son nom actuel est entré en usage en 1950 .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle survient généralement en présence d'une tumeur de l'hypophyse [2], bien que la plupart des personnes n'en aient pas conscience avant [1]. Les facteurs de risque sont l'hypertension artérielle, les suites d'une opération, la grossesse, les anticoagulants, les traumatismes crâniens et la dengue [1]. Le mécanisme sous-jacent peut parfois entrainer une hémorragie ou un apport insuffisant du sang à l’hypophyse [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle survient généralement en présence d'une tumeur de l'hypophyse , bien que la plupart des personnes n'en aient pas conscience avant . Les facteurs de risque sont l'hypertension artérielle, les suites d'une opération, la grossesse, les anticoagulants, les traumatismes crâniens et la dengue . Le mécanisme sous-jacent peut parfois entrainer une hémorragie ou un apport insuffisant du sang à l’hypophyse .
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers symptômes sont des céphalées, des nausées et des troubles visuels [1]. Les problèmes de la vision peuvent entrainer une vision double, une perte du champ visuel ou une diminution de la vision. Le début est généralement soudain [1]. Les complications peuvent inclure une insuffisance hypophysaire, une insuffisance surrénalienne ou un coma [1],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers symptômes sont des céphalées, des nausées et des troubles visuels . Les problèmes de la vision peuvent entrainer une vision double, une perte du champ visuel ou une diminution de la vision. Le début est généralement soudain . Les complications peuvent inclure une insuffisance hypophysaire, une insuffisance surrénalienne ou un coma ,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic est suspecté sur la base des symptômes et confirmé par l'IRM [1]. Une ponction lombaire peut détecter du sang dans le liquide céphalo-rachidien [6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est suspecté sur la base des symptômes et confirmé par l'IRM . Une ponction lombaire peut détecter du sang dans le liquide céphalo-rachidien .
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement initial implique généralement une solution saline intraveineuse normale associée à 100 mg d'hydrocortisone [1]. Une décompression chirurgicale est recommandée dans les 7 jours chez les personnes présentant des problèmes de vision ou une diminution du niveau de conscience [1]. Environ 80 % des personnes souffrent d'hypopituitarisme à long terme et nécessitent un remplacement hormonal constante [1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement initial implique généralement une solution saline intraveineuse normale associée à 100 mg d'hydrocortisone . Une décompression chirurgicale est recommandée dans les 7 jours chez les personnes présentant des problèmes de vision ou une diminution du niveau de conscience . Environ 80 % des personnes souffrent d'hypopituitarisme à long terme et nécessitent un remplacement hormonal constante .
 </t>
         </is>
       </c>
